--- a/all_reports.xlsx
+++ b/all_reports.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1997</t>
+          <t>2037</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1281</t>
+          <t>1306</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>984</t>
+          <t>1011</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2104</t>
+          <t>2150</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>688</t>
+          <t>705</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>822</t>
+          <t>839</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -720,7 +720,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1129</t>
+          <t>1156</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -757,7 +757,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>810</t>
+          <t>830</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -794,7 +794,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>845</t>
+          <t>875</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>640</t>
+          <t>658</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>535</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -905,7 +905,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>855</t>
+          <t>873</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -942,7 +942,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>463</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1041</t>
+          <t>1058</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1016,7 +1016,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1803</t>
+          <t>1842</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1053,7 +1053,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>747</t>
+          <t>762</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>481</t>
+          <t>492</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>847</t>
+          <t>863</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1164,7 +1164,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>648</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>979</t>
+          <t>990</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1995</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1275,7 +1275,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2080</t>
+          <t>2092</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1312,7 +1312,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2095</t>
+          <t>2106</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1349,7 +1349,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1407</t>
+          <t>1419</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1386,7 +1386,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>1304</t>
+          <t>1315</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1423,7 +1423,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>783</t>
+          <t>791</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1460,7 +1460,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1572</t>
+          <t>1585</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2034</t>
+          <t>2042</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1534,7 +1534,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>1135</t>
+          <t>1146</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2029</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1608,7 +1608,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>4882</t>
+          <t>4911</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1645,7 +1645,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>1122</t>
+          <t>1128</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1682,7 +1682,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>719</t>
+          <t>725</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>1098</t>
+          <t>1103</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1756,7 +1756,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2950</t>
+          <t>2960</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -1793,7 +1793,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>1173</t>
+          <t>1184</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -1830,7 +1830,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>911</t>
+          <t>917</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -1867,7 +1867,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>629</t>
+          <t>637</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -1904,7 +1904,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>1032</t>
+          <t>1040</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -1941,7 +1941,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>928</t>
+          <t>935</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -1978,7 +1978,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>752</t>
+          <t>757</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2015,7 +2015,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>921</t>
+          <t>928</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2052,7 +2052,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>667</t>
+          <t>672</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>939</t>
+          <t>945</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2126,7 +2126,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>681</t>
+          <t>688</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>1784</t>
+          <t>1791</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>1186</t>
+          <t>1192</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>1291</t>
+          <t>1297</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -2274,7 +2274,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>1287</t>
+          <t>1293</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>779</t>
+          <t>786</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2348,7 +2348,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>1166</t>
+          <t>1174</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>951</t>
+          <t>956</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -2422,7 +2422,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>946</t>
+          <t>952</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -2459,7 +2459,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>1748</t>
+          <t>1754</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -2496,7 +2496,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>858</t>
+          <t>863</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -2533,7 +2533,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>1854</t>
+          <t>1864</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2570,7 +2570,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>1360</t>
+          <t>1365</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -2607,7 +2607,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>1147</t>
+          <t>1153</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -2644,7 +2644,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>742</t>
+          <t>748</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -2681,7 +2681,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>947</t>
+          <t>952</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -2718,7 +2718,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>681</t>
+          <t>695</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -2755,7 +2755,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>605</t>
+          <t>619</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -2792,7 +2792,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>435</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -2829,7 +2829,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>529</t>
+          <t>540</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -2866,7 +2866,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>686</t>
+          <t>701</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -2903,7 +2903,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>313</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -2940,7 +2940,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>462</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -2977,7 +2977,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>618</t>
+          <t>630</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -3014,7 +3014,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>382</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -3051,7 +3051,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>732</t>
+          <t>740</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -3088,7 +3088,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>843</t>
+          <t>849</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -3125,7 +3125,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>438</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -3162,7 +3162,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>1040</t>
+          <t>1048</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -3199,7 +3199,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>583</t>
+          <t>591</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -3236,7 +3236,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>746</t>
+          <t>756</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -3273,7 +3273,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>431</t>
+          <t>438</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -3310,7 +3310,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>335</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -3347,7 +3347,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>546</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -3384,7 +3384,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>481</t>
+          <t>491</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -3421,7 +3421,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>606</t>
+          <t>616</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -3458,7 +3458,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>425</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -3495,7 +3495,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>336</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -3532,7 +3532,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>352</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -3569,7 +3569,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>400</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -3606,7 +3606,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>1202</t>
+          <t>1209</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -3643,7 +3643,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>690</t>
+          <t>696</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -3680,7 +3680,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>681</t>
+          <t>687</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -3717,7 +3717,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>486</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -3754,7 +3754,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>638</t>
+          <t>646</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -3791,7 +3791,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>498</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -3828,7 +3828,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>534</t>
+          <t>539</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>368</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -3902,7 +3902,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>539</t>
+          <t>544</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -3939,7 +3939,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>397</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>630</t>
+          <t>637</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -4013,7 +4013,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>365</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -4050,7 +4050,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>529</t>
+          <t>533</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -4087,7 +4087,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>620</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -4124,7 +4124,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>470</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -4161,7 +4161,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>324</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -4198,7 +4198,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>260</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -4235,7 +4235,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>427</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -4272,7 +4272,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>249</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -4309,7 +4309,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>649</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -4346,7 +4346,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>253</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -4383,7 +4383,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>279</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -4420,7 +4420,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>446</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -4457,7 +4457,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>272</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -4494,7 +4494,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>1002</t>
+          <t>1008</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -4531,7 +4531,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>701</t>
+          <t>705</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -4568,7 +4568,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>951</t>
+          <t>955</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -4605,7 +4605,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>1169</t>
+          <t>1174</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -4642,7 +4642,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>901</t>
+          <t>905</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -4679,7 +4679,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>1682</t>
+          <t>1686</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -4716,7 +4716,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2174</t>
+          <t>2180</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -4753,7 +4753,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>917</t>
+          <t>921</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -4790,7 +4790,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>730</t>
+          <t>734</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -4827,7 +4827,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>1605</t>
+          <t>1609</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -4864,7 +4864,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>918</t>
+          <t>923</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -4901,7 +4901,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>677</t>
+          <t>681</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -4938,7 +4938,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>590</t>
+          <t>613</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -4975,7 +4975,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>459</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -5012,7 +5012,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>430</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -5049,7 +5049,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>518</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -5086,7 +5086,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>309</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -5123,7 +5123,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>331</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -5160,7 +5160,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>297</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -5197,7 +5197,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>170</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -5234,7 +5234,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>198</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -5271,7 +5271,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>187</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -5308,7 +5308,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>165</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -5345,7 +5345,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>726</t>
+          <t>731</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -5382,7 +5382,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>504</t>
+          <t>508</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -5419,7 +5419,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>506</t>
+          <t>510</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -5456,7 +5456,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>381</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -5493,7 +5493,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>438</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -5530,7 +5530,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>294</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -5567,7 +5567,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>240</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -5604,7 +5604,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>332</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>228</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -5678,7 +5678,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>206</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -5715,7 +5715,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>194</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>786</t>
+          <t>790</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -5789,7 +5789,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>465</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -5826,7 +5826,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>456</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -5863,7 +5863,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>452</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -5900,7 +5900,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>298</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -5937,7 +5937,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>309</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -5974,7 +5974,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>291</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -6011,7 +6011,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>232</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -6048,7 +6048,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>254</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -6085,7 +6085,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>264</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -6122,7 +6122,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>218</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -6159,7 +6159,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>866</t>
+          <t>870</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -6196,7 +6196,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>639</t>
+          <t>643</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -6233,7 +6233,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>468</t>
+          <t>472</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -6270,7 +6270,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>359</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -6307,7 +6307,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>309</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -6344,7 +6344,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>358</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -6381,7 +6381,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>366</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -6418,7 +6418,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>262</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -6455,7 +6455,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>263</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -6492,7 +6492,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>276</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -6529,7 +6529,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>223</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -6566,7 +6566,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>242</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
@@ -6603,7 +6603,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>203</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -6640,7 +6640,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>366</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -6677,7 +6677,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>323</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -6714,7 +6714,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>250</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
@@ -6751,7 +6751,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>274</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -6788,7 +6788,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>276</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -6825,7 +6825,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>590</t>
+          <t>594</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -6862,7 +6862,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>496</t>
+          <t>500</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -6899,7 +6899,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>392</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
@@ -6936,7 +6936,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>334</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
@@ -6973,7 +6973,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>465</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
@@ -7010,7 +7010,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>414</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -7047,7 +7047,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>296</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
@@ -7084,7 +7084,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>278</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -7121,7 +7121,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>364</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -7158,7 +7158,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>581</t>
+          <t>598</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -7195,7 +7195,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>274</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -7232,7 +7232,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>519</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
@@ -7269,7 +7269,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>320</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
@@ -7306,7 +7306,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>158</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -7343,7 +7343,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>332</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
@@ -7380,7 +7380,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>175</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
@@ -7417,7 +7417,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>210</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
@@ -7454,7 +7454,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>162</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
@@ -7491,7 +7491,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>162</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>347</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
@@ -7565,7 +7565,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>259</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
@@ -7602,7 +7602,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>377</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -7639,7 +7639,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>376</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -7676,7 +7676,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>324</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -7713,7 +7713,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>228</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
@@ -7750,7 +7750,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>264</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -7787,7 +7787,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>224</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
@@ -7824,7 +7824,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>264</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
@@ -7861,7 +7861,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>225</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
@@ -7898,7 +7898,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>229</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -7935,7 +7935,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>215</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
@@ -7972,7 +7972,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>454</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
@@ -8009,7 +8009,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>316</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
@@ -8046,7 +8046,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>377</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
@@ -8083,7 +8083,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>448</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
@@ -8120,7 +8120,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>417</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
@@ -8157,7 +8157,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>366</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
@@ -8194,7 +8194,7 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>438</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
@@ -8231,7 +8231,7 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>1070</t>
+          <t>1076</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
@@ -8268,7 +8268,7 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>313</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
@@ -8305,7 +8305,7 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>216</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
@@ -8342,7 +8342,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>270</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -8379,7 +8379,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>237</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
@@ -8416,7 +8416,7 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>261</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
@@ -8453,7 +8453,7 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>232</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
@@ -8490,7 +8490,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>237</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
@@ -8527,7 +8527,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>250</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
@@ -8564,7 +8564,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>236</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
@@ -8601,7 +8601,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>253</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
@@ -8638,7 +8638,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>846</t>
+          <t>850</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
@@ -8675,7 +8675,7 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>506</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
@@ -8712,7 +8712,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>552</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
@@ -8749,7 +8749,7 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>362</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
@@ -8786,7 +8786,7 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>416</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
@@ -8823,7 +8823,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>956</t>
+          <t>961</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
@@ -8860,7 +8860,7 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>536</t>
+          <t>540</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
@@ -8897,7 +8897,7 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>381</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
@@ -8934,7 +8934,7 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>347</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
@@ -8971,7 +8971,7 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>363</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
@@ -9008,7 +9008,7 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>513</t>
+          <t>517</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
@@ -9045,7 +9045,7 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>385</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
@@ -9082,7 +9082,7 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>669</t>
+          <t>673</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
@@ -9119,7 +9119,7 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>427</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
@@ -9156,7 +9156,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>356</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
@@ -9193,7 +9193,7 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>474</t>
+          <t>478</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
@@ -9230,7 +9230,7 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>641</t>
+          <t>645</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
@@ -9267,7 +9267,7 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>540</t>
+          <t>544</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>447</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
@@ -9341,7 +9341,7 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>461</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
@@ -9378,7 +9378,7 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>295</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
@@ -9415,7 +9415,7 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>415</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
@@ -9452,7 +9452,7 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>237</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
@@ -9489,7 +9489,7 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>311</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
@@ -9526,7 +9526,7 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>363</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
@@ -9563,7 +9563,7 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>339</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
@@ -9600,7 +9600,7 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>691</t>
+          <t>695</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
@@ -9637,7 +9637,7 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>773</t>
+          <t>789</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
@@ -9674,7 +9674,7 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>627</t>
+          <t>631</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
@@ -9711,7 +9711,7 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>760</t>
+          <t>766</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
@@ -9748,7 +9748,7 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>385</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
@@ -9785,7 +9785,7 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>590</t>
+          <t>596</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
@@ -9822,7 +9822,7 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>395</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
@@ -9859,7 +9859,7 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>337</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
@@ -9896,7 +9896,7 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>584</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
@@ -9933,7 +9933,7 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>379</t>
+          <t>383</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
@@ -9970,7 +9970,7 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>389</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
@@ -10007,7 +10007,7 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>329</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
@@ -10044,7 +10044,7 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>324</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
@@ -10081,7 +10081,7 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>880</t>
+          <t>884</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
@@ -10118,7 +10118,7 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>580</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
@@ -10155,7 +10155,7 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>463</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
@@ -10192,7 +10192,7 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>455</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
@@ -10229,7 +10229,7 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>549</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
@@ -10266,7 +10266,7 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>496</t>
+          <t>500</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
@@ -10303,7 +10303,7 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>728</t>
+          <t>733</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
@@ -10340,7 +10340,7 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>518</t>
+          <t>522</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
@@ -10377,7 +10377,7 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>755</t>
+          <t>759</t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
@@ -10414,7 +10414,7 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>603</t>
+          <t>607</t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
@@ -10451,7 +10451,7 @@
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>540</t>
+          <t>544</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
@@ -10488,7 +10488,7 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>531</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
@@ -10525,7 +10525,7 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>447</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
@@ -10562,7 +10562,7 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>557</t>
+          <t>561</t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
@@ -10599,7 +10599,7 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>567</t>
+          <t>571</t>
         </is>
       </c>
       <c r="G275" t="inlineStr">
@@ -10636,7 +10636,7 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>589</t>
+          <t>593</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
@@ -10673,7 +10673,7 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>659</t>
+          <t>663</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
@@ -10710,7 +10710,7 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>1422</t>
+          <t>1426</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
@@ -10747,7 +10747,7 @@
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>605</t>
+          <t>609</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
@@ -10784,7 +10784,7 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>524</t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
@@ -10821,7 +10821,7 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>530</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
@@ -10858,7 +10858,7 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>411</t>
         </is>
       </c>
       <c r="G282" t="inlineStr">
@@ -10895,7 +10895,7 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>516</t>
+          <t>520</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
@@ -10932,7 +10932,7 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>541</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
@@ -10969,7 +10969,7 @@
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>899</t>
+          <t>903</t>
         </is>
       </c>
       <c r="G285" t="inlineStr">
@@ -11006,7 +11006,7 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>577</t>
+          <t>581</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
@@ -11043,7 +11043,7 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>542</t>
+          <t>546</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>507</t>
+          <t>511</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
@@ -11117,7 +11117,7 @@
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>497</t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
@@ -11154,7 +11154,7 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>468</t>
+          <t>472</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
@@ -11191,7 +11191,7 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>395</t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
@@ -11228,7 +11228,7 @@
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>371</t>
         </is>
       </c>
       <c r="G292" t="inlineStr">
@@ -11265,7 +11265,7 @@
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>386</t>
+          <t>390</t>
         </is>
       </c>
       <c r="G293" t="inlineStr">
@@ -11302,7 +11302,7 @@
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>415</t>
+          <t>419</t>
         </is>
       </c>
       <c r="G294" t="inlineStr">
@@ -11339,7 +11339,7 @@
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>391</t>
         </is>
       </c>
       <c r="G295" t="inlineStr">
@@ -11376,7 +11376,7 @@
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>348</t>
         </is>
       </c>
       <c r="G296" t="inlineStr">
@@ -11413,7 +11413,7 @@
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>493</t>
         </is>
       </c>
       <c r="G297" t="inlineStr">
@@ -11450,7 +11450,7 @@
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>469</t>
         </is>
       </c>
       <c r="G298" t="inlineStr">
@@ -11487,7 +11487,7 @@
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>332</t>
         </is>
       </c>
       <c r="G299" t="inlineStr">
@@ -11524,7 +11524,7 @@
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>331</t>
         </is>
       </c>
       <c r="G300" t="inlineStr">
@@ -11561,7 +11561,7 @@
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>400</t>
         </is>
       </c>
       <c r="G301" t="inlineStr">
@@ -11598,7 +11598,7 @@
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>153</t>
         </is>
       </c>
       <c r="G302" t="inlineStr">
@@ -11635,7 +11635,7 @@
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>172</t>
         </is>
       </c>
       <c r="G303" t="inlineStr">
@@ -11672,7 +11672,7 @@
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>97</t>
         </is>
       </c>
       <c r="G304" t="inlineStr">
@@ -11709,7 +11709,7 @@
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>97</t>
         </is>
       </c>
       <c r="G305" t="inlineStr">
@@ -11746,7 +11746,7 @@
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>128</t>
         </is>
       </c>
       <c r="G306" t="inlineStr">
@@ -11783,7 +11783,7 @@
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>209</t>
         </is>
       </c>
       <c r="G307" t="inlineStr">
@@ -11820,7 +11820,7 @@
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>147</t>
         </is>
       </c>
       <c r="G308" t="inlineStr">
@@ -11857,7 +11857,7 @@
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>124</t>
         </is>
       </c>
       <c r="G309" t="inlineStr">
@@ -11894,7 +11894,7 @@
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>116</t>
         </is>
       </c>
       <c r="G310" t="inlineStr">
@@ -11931,7 +11931,7 @@
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>213</t>
         </is>
       </c>
       <c r="G311" t="inlineStr">
@@ -11968,7 +11968,7 @@
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>181</t>
         </is>
       </c>
       <c r="G312" t="inlineStr">
@@ -12005,7 +12005,7 @@
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>124</t>
         </is>
       </c>
       <c r="G313" t="inlineStr">
@@ -12042,7 +12042,7 @@
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>123</t>
         </is>
       </c>
       <c r="G314" t="inlineStr">
@@ -12079,7 +12079,7 @@
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>201</t>
         </is>
       </c>
       <c r="G315" t="inlineStr">
@@ -12116,7 +12116,7 @@
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>131</t>
         </is>
       </c>
       <c r="G316" t="inlineStr">
@@ -12153,7 +12153,7 @@
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>196</t>
         </is>
       </c>
       <c r="G317" t="inlineStr">
@@ -12190,7 +12190,7 @@
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>177</t>
         </is>
       </c>
       <c r="G318" t="inlineStr">
@@ -12227,7 +12227,7 @@
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>118</t>
         </is>
       </c>
       <c r="G319" t="inlineStr">
@@ -12264,7 +12264,7 @@
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>129</t>
         </is>
       </c>
       <c r="G320" t="inlineStr">
@@ -12301,7 +12301,7 @@
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>264</t>
         </is>
       </c>
       <c r="G321" t="inlineStr">
@@ -12338,7 +12338,7 @@
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>218</t>
         </is>
       </c>
       <c r="G322" t="inlineStr">
@@ -12375,7 +12375,7 @@
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>219</t>
         </is>
       </c>
       <c r="G323" t="inlineStr">
@@ -12412,7 +12412,7 @@
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>141</t>
         </is>
       </c>
       <c r="G324" t="inlineStr">
@@ -12449,7 +12449,7 @@
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>139</t>
         </is>
       </c>
       <c r="G325" t="inlineStr">
@@ -12486,7 +12486,7 @@
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>153</t>
         </is>
       </c>
       <c r="G326" t="inlineStr">
@@ -12523,7 +12523,7 @@
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>170</t>
         </is>
       </c>
       <c r="G327" t="inlineStr">
@@ -12560,7 +12560,7 @@
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>187</t>
         </is>
       </c>
       <c r="G328" t="inlineStr">
@@ -12597,7 +12597,7 @@
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>210</t>
         </is>
       </c>
       <c r="G329" t="inlineStr">
@@ -12634,7 +12634,7 @@
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>146</t>
         </is>
       </c>
       <c r="G330" t="inlineStr">
@@ -12671,7 +12671,7 @@
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>137</t>
         </is>
       </c>
       <c r="G331" t="inlineStr">
@@ -12708,7 +12708,7 @@
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>198</t>
         </is>
       </c>
       <c r="G332" t="inlineStr">
@@ -12745,7 +12745,7 @@
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>151</t>
         </is>
       </c>
       <c r="G333" t="inlineStr">
@@ -12782,7 +12782,7 @@
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>148</t>
         </is>
       </c>
       <c r="G334" t="inlineStr">
@@ -12819,7 +12819,7 @@
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>213</t>
         </is>
       </c>
       <c r="G335" t="inlineStr">
@@ -12856,7 +12856,7 @@
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>220</t>
         </is>
       </c>
       <c r="G336" t="inlineStr">
@@ -12893,7 +12893,7 @@
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>154</t>
         </is>
       </c>
       <c r="G337" t="inlineStr">
@@ -12930,7 +12930,7 @@
       </c>
       <c r="F338" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>145</t>
         </is>
       </c>
       <c r="G338" t="inlineStr">
@@ -12967,7 +12967,7 @@
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>156</t>
         </is>
       </c>
       <c r="G339" t="inlineStr">
@@ -13004,7 +13004,7 @@
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>266</t>
         </is>
       </c>
       <c r="G340" t="inlineStr">
@@ -13041,7 +13041,7 @@
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>315</t>
         </is>
       </c>
       <c r="G341" t="inlineStr">
@@ -13078,7 +13078,7 @@
       </c>
       <c r="F342" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>219</t>
         </is>
       </c>
       <c r="G342" t="inlineStr">
@@ -13115,7 +13115,7 @@
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>154</t>
         </is>
       </c>
       <c r="G343" t="inlineStr">
@@ -13152,7 +13152,7 @@
       </c>
       <c r="F344" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>152</t>
         </is>
       </c>
       <c r="G344" t="inlineStr">
@@ -13189,7 +13189,7 @@
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>266</t>
         </is>
       </c>
       <c r="G345" t="inlineStr">
@@ -13226,7 +13226,7 @@
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>182</t>
         </is>
       </c>
       <c r="G346" t="inlineStr">
@@ -13263,7 +13263,7 @@
       </c>
       <c r="F347" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>196</t>
         </is>
       </c>
       <c r="G347" t="inlineStr">
@@ -13300,7 +13300,7 @@
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>233</t>
         </is>
       </c>
       <c r="G348" t="inlineStr">
@@ -13337,7 +13337,7 @@
       </c>
       <c r="F349" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>145</t>
         </is>
       </c>
       <c r="G349" t="inlineStr">
@@ -13374,7 +13374,7 @@
       </c>
       <c r="F350" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>192</t>
         </is>
       </c>
       <c r="G350" t="inlineStr">
@@ -13411,7 +13411,7 @@
       </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>204</t>
         </is>
       </c>
       <c r="G351" t="inlineStr">
@@ -13448,7 +13448,7 @@
       </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>210</t>
         </is>
       </c>
       <c r="G352" t="inlineStr">
@@ -13485,7 +13485,7 @@
       </c>
       <c r="F353" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>244</t>
         </is>
       </c>
       <c r="G353" t="inlineStr">
@@ -13522,7 +13522,7 @@
       </c>
       <c r="F354" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>165</t>
         </is>
       </c>
       <c r="G354" t="inlineStr">
@@ -13559,7 +13559,7 @@
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>132</t>
         </is>
       </c>
       <c r="G355" t="inlineStr">
@@ -13596,7 +13596,7 @@
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>152</t>
         </is>
       </c>
       <c r="G356" t="inlineStr">
@@ -13633,7 +13633,7 @@
       </c>
       <c r="F357" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>230</t>
         </is>
       </c>
       <c r="G357" t="inlineStr">
@@ -13670,7 +13670,7 @@
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>208</t>
         </is>
       </c>
       <c r="G358" t="inlineStr">
@@ -13707,7 +13707,7 @@
       </c>
       <c r="F359" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>155</t>
         </is>
       </c>
       <c r="G359" t="inlineStr">
@@ -13744,7 +13744,7 @@
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>159</t>
         </is>
       </c>
       <c r="G360" t="inlineStr">
@@ -13781,7 +13781,7 @@
       </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>289</t>
         </is>
       </c>
       <c r="G361" t="inlineStr">
